--- a/R_C14_rates calculation/Output/Raw data/Rates_cell_npp_method2.xlsx
+++ b/R_C14_rates calculation/Output/Raw data/Rates_cell_npp_method2.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SA1</t>
+          <t>SA-Sc</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>SA1</t>
+          <t>SA-Sc</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SA1</t>
+          <t>SA-Sc</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>SA1</t>
+          <t>SA-Sc</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>SA1</t>
+          <t>SA-Sc</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SA1</t>
+          <t>SA-Sc</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>SA1</t>
+          <t>SA-Sc</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>SA1</t>
+          <t>SA-Sc</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>SA1</t>
+          <t>SA-Sc</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>SA3</t>
+          <t>SA2</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>SA1</t>
+          <t>SA-Sc</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>SA1</t>
+          <t>SA-Sc</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>SA1</t>
+          <t>SA-Sc</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>SA1</t>
+          <t>SA-Sc</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3585,7 +3585,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>SA1</t>
+          <t>SA-Sc</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>SA1</t>
+          <t>SA-Sc</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>SA1</t>
+          <t>SA-Sc</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3975,7 +3975,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4040,7 +4040,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -4625,7 +4625,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -5405,7 +5405,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -5660,7 +5660,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -6020,7 +6020,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -6140,7 +6140,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -6335,7 +6335,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -6465,7 +6465,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -6530,7 +6530,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -6595,7 +6595,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>SA2</t>
+          <t>SA1</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
